--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Oxt-Avpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Oxt-Avpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Oxt</t>
+  </si>
+  <si>
+    <t>Avpr2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Oxt</t>
-  </si>
-  <si>
-    <t>Avpr2</t>
   </si>
 </sst>
 </file>
@@ -528,37 +531,37 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.2955753333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.8867259999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.239018529794766</v>
+      </c>
+      <c r="J2">
+        <v>0.2584571780171812</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.192651</v>
-      </c>
-      <c r="H2">
-        <v>0.5779529999999999</v>
-      </c>
-      <c r="I2">
-        <v>0.2471468890314304</v>
-      </c>
-      <c r="J2">
-        <v>0.2471468890314304</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.016704</v>
+        <v>0.09302566666666667</v>
       </c>
       <c r="N2">
-        <v>0.050112</v>
+        <v>0.279077</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.003218042304</v>
+        <v>0.02749609243355556</v>
       </c>
       <c r="R2">
-        <v>0.028962380736</v>
+        <v>0.247464831902</v>
       </c>
       <c r="S2">
-        <v>0.2471468890314304</v>
+        <v>0.239018529794766</v>
       </c>
       <c r="T2">
-        <v>0.2471468890314304</v>
+        <v>0.2584571780171812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,22 +608,22 @@
         <v>0.775266</v>
       </c>
       <c r="I3">
-        <v>0.3315227710070558</v>
+        <v>0.2089742936599006</v>
       </c>
       <c r="J3">
-        <v>0.3315227710070558</v>
+        <v>0.2259695357671569</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.016704</v>
+        <v>0.09302566666666667</v>
       </c>
       <c r="N3">
-        <v>0.050112</v>
+        <v>0.279077</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.004316681088</v>
+        <v>0.02403987883133333</v>
       </c>
       <c r="R3">
-        <v>0.038850129792</v>
+        <v>0.216358909482</v>
       </c>
       <c r="S3">
-        <v>0.3315227710070558</v>
+        <v>0.2089742936599006</v>
       </c>
       <c r="T3">
-        <v>0.3315227710070558</v>
+        <v>0.2259695357671569</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,37 +655,37 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.27902</v>
+      </c>
+      <c r="H4">
+        <v>0.55804</v>
+      </c>
+      <c r="I4">
+        <v>0.2256309734348681</v>
+      </c>
+      <c r="J4">
+        <v>0.1626539016795581</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.115147</v>
-      </c>
-      <c r="H4">
-        <v>0.345441</v>
-      </c>
-      <c r="I4">
-        <v>0.1477190506735087</v>
-      </c>
-      <c r="J4">
-        <v>0.1477190506735087</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.016704</v>
+        <v>0.09302566666666667</v>
       </c>
       <c r="N4">
-        <v>0.050112</v>
+        <v>0.279077</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.001923415488</v>
+        <v>0.02595602151333333</v>
       </c>
       <c r="R4">
-        <v>0.017310739392</v>
+        <v>0.15573612908</v>
       </c>
       <c r="S4">
-        <v>0.1477190506735087</v>
+        <v>0.2256309734348681</v>
       </c>
       <c r="T4">
-        <v>0.1477190506735087</v>
+        <v>0.1626539016795581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,37 +717,37 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.4036036666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.210811</v>
+      </c>
+      <c r="I5">
+        <v>0.3263762031104653</v>
+      </c>
+      <c r="J5">
+        <v>0.3529193845361038</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.21328</v>
-      </c>
-      <c r="H5">
-        <v>0.63984</v>
-      </c>
-      <c r="I5">
-        <v>0.2736112892880052</v>
-      </c>
-      <c r="J5">
-        <v>0.2736112892880052</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.016704</v>
+        <v>0.09302566666666667</v>
       </c>
       <c r="N5">
-        <v>0.050112</v>
+        <v>0.279077</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.00356262912</v>
+        <v>0.03754550016077778</v>
       </c>
       <c r="R5">
-        <v>0.03206366208</v>
+        <v>0.337909501447</v>
       </c>
       <c r="S5">
-        <v>0.2736112892880052</v>
+        <v>0.3263762031104653</v>
       </c>
       <c r="T5">
-        <v>0.2736112892880052</v>
+        <v>0.3529193845361038</v>
       </c>
     </row>
   </sheetData>
